--- a/IntensiveLearning/App_Data/Test/طلاب.xlsx
+++ b/IntensiveLearning/App_Data/Test/طلاب.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>الاسم</t>
   </si>
@@ -54,39 +54,41 @@
     <t>الجنس</t>
   </si>
   <si>
-    <t>جميع الأسماء يجب ان تكون متطابقة تماما مع التي هي موجودة في الموقع</t>
-  </si>
-  <si>
-    <t>التاريخ يجب ان يكون من الشكل 22/5/1999</t>
-  </si>
-  <si>
-    <t>الجنس اما ذكر أو انثى</t>
-  </si>
-  <si>
-    <t>(اسم المركز, اسم الشعبة, اسم المرحلة)</t>
-  </si>
-  <si>
     <t>asd</t>
   </si>
   <si>
-    <t>as</t>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>العمر</t>
+  </si>
+  <si>
+    <t>عمر</t>
+  </si>
+  <si>
+    <t>22/5/1985</t>
+  </si>
+  <si>
+    <t>ثاني ثانوي</t>
+  </si>
+  <si>
+    <t>ذكر</t>
+  </si>
+  <si>
+    <t>30/11/2017</t>
+  </si>
+  <si>
+    <t>30/7/1955</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,19 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -405,122 +400,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>180</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>180</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>180</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F5" s="1">
+        <v>180</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" s="5" t="s">
-        <v>13</v>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>180</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gD8PBR6EnONvDwOk9Zxo/DivrZa/UaokrvZdlz4oqr4/NKg/QW12damBv9/wXqknLVKweCsRCADcEKFe9ME/pw==" saltValue="3N3Azqr3aEaNGsxoiIT6iw==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BSPR/ryVs9kQ+C0X9bOWw7Mc3EPy1Pt9OHobmDCNGlY1DDLhWrRL7nKuAchvB7Qa7nf6C31UW72OxJuFmFO25g==" saltValue="SaoCFSBd51k7+3KutUO6KA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/IntensiveLearning/App_Data/Test/طلاب.xlsx
+++ b/IntensiveLearning/App_Data/Test/طلاب.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>الاسم</t>
   </si>
@@ -54,31 +54,13 @@
     <t>الجنس</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>العمر</t>
-  </si>
-  <si>
-    <t>عمر</t>
-  </si>
-  <si>
-    <t>22/5/1985</t>
-  </si>
-  <si>
-    <t>ثاني ثانوي</t>
-  </si>
-  <si>
-    <t>ذكر</t>
-  </si>
-  <si>
-    <t>30/11/2017</t>
-  </si>
-  <si>
-    <t>30/7/1955</t>
+    <t>اسم الأم</t>
+  </si>
+  <si>
+    <t>وضع التلميذ متسرب/راسب/منقطع</t>
+  </si>
+  <si>
+    <t>المدرسة التي كان يدرس فيها</t>
   </si>
 </sst>
 </file>
@@ -114,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -400,27 +385,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -431,192 +417,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>180</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>180</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <v>180</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1">
-        <v>180</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>180</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BSPR/ryVs9kQ+C0X9bOWw7Mc3EPy1Pt9OHobmDCNGlY1DDLhWrRL7nKuAchvB7Qa7nf6C31UW72OxJuFmFO25g==" saltValue="SaoCFSBd51k7+3KutUO6KA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZQaaIIVgi9dCV3HXjTIoZphFYwWkAXx+2rdsT1rST2OXqOwnQLyeocVSVIl+HLdZSYJ/NzMdLnCWNyaa0JPE8g==" saltValue="ugyxPW9Fp8yL8mLNQ4iXxQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
